--- a/data/trans_dic/P19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2701331638753658</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1971612110309544</v>
+        <v>0.1971612110309543</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3122326564740591</v>
+        <v>0.3134244132248725</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2870238103394115</v>
+        <v>0.2908089527535703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2383838075064591</v>
+        <v>0.2471610063346385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1613185219561366</v>
+        <v>0.1587435314654643</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2842443993272862</v>
+        <v>0.2895922977109369</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2489295726960464</v>
+        <v>0.2518697126951892</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2114132354886711</v>
+        <v>0.2082965861044043</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1104459429925448</v>
+        <v>0.1122563491640621</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3146289422936439</v>
+        <v>0.3132517440804783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2825260976373086</v>
+        <v>0.2832006302178199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2357293155094796</v>
+        <v>0.2394925008210258</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1531403350005685</v>
+        <v>0.1550732994423754</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4086571767870899</v>
+        <v>0.4110320587339363</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3848312230234561</v>
+        <v>0.3859751970216918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3424035098461698</v>
+        <v>0.343887238655868</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3149602420773863</v>
+        <v>0.3148256210458062</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3759552045432659</v>
+        <v>0.3801862645350887</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3426977722850769</v>
+        <v>0.3471845417720984</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3016360944033653</v>
+        <v>0.2975055737813125</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2313980016870657</v>
+        <v>0.2287125636501472</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3826272480238589</v>
+        <v>0.380357751540926</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3503921445783076</v>
+        <v>0.3495380957630042</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3064571462945489</v>
+        <v>0.3049405049606587</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2483289611724716</v>
+        <v>0.2485813686598816</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3016543664891743</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2007823405320332</v>
+        <v>0.2007823405320333</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3960631564666124</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3586552393040373</v>
+        <v>0.3579728682601873</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.301557874951818</v>
+        <v>0.3024334944002314</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3031621265825666</v>
+        <v>0.2977746240220877</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1709166222978617</v>
+        <v>0.1744629994726488</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3531821887127049</v>
+        <v>0.3526122556029535</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2983725283893246</v>
+        <v>0.2978469090493385</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.262248583827759</v>
+        <v>0.2657078871906665</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1667092057670266</v>
+        <v>0.165213650200296</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3647012236689804</v>
+        <v>0.3646096840460105</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3149904308672346</v>
+        <v>0.311474376403926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2932777981224419</v>
+        <v>0.292431108791471</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1784200249321143</v>
+        <v>0.1804714091615229</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4419931350387518</v>
+        <v>0.4408293716786424</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3793136113537196</v>
+        <v>0.3828982915443899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3850537981629522</v>
+        <v>0.3839991084745035</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2765468442095781</v>
+        <v>0.2798017731473179</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4381603216408387</v>
+        <v>0.4363563632432014</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3848873906987988</v>
+        <v>0.3804339938674178</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3443648290090781</v>
+        <v>0.3463448694528201</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2397761597225767</v>
+        <v>0.242724379383993</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4239175286202271</v>
+        <v>0.4264326590651167</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3695609429873923</v>
+        <v>0.369008794855069</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3510118836679428</v>
+        <v>0.3500305285323874</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2435411915739916</v>
+        <v>0.2429685723237639</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3359154573452685</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2141464143176547</v>
+        <v>0.2141464143176548</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3716967509116976</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3388349674862629</v>
+        <v>0.3424658100528394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3012913441439504</v>
+        <v>0.3010693725856164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2969802309129249</v>
+        <v>0.2932083291199292</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1794067828299402</v>
+        <v>0.1803824773665772</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3369107623117822</v>
+        <v>0.3315278526079264</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.320951294180273</v>
+        <v>0.315404860445926</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2643110698219365</v>
+        <v>0.2601263305580332</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1892254669623038</v>
+        <v>0.1894990501229288</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3495821383449955</v>
+        <v>0.349620463573297</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3213218262649736</v>
+        <v>0.323151414007634</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2895693792909123</v>
+        <v>0.2907304521527506</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1951647511344802</v>
+        <v>0.1944359035822108</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4322488190993476</v>
+        <v>0.4307392034111582</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.378911390257277</v>
+        <v>0.3819053733383649</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3785507835133367</v>
+        <v>0.3773356909654053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2516896849347531</v>
+        <v>0.2505715266457663</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4148908991921241</v>
+        <v>0.4109024013492737</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3964622596020354</v>
+        <v>0.398908713872024</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3381495911231671</v>
+        <v>0.3409220817476625</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2490450300440267</v>
+        <v>0.2489616070492406</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.411969891244865</v>
+        <v>0.4087701130960185</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3756768314468286</v>
+        <v>0.3775869181474737</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3459288847740627</v>
+        <v>0.3446647203873268</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.236796550613575</v>
+        <v>0.2385882984432172</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3054321547447045</v>
+        <v>0.3076073953858493</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2874237949905212</v>
+        <v>0.2902648128690772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.238291096570484</v>
+        <v>0.2347891736825434</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1885821741293138</v>
+        <v>0.1875398297161307</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3065917631693927</v>
+        <v>0.3060189779120524</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2647218062731535</v>
+        <v>0.266059375680348</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2495136486903035</v>
+        <v>0.251407763882736</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1854475522348289</v>
+        <v>0.1855814332538838</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3204030808368548</v>
+        <v>0.3208803436043748</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2908082537203241</v>
+        <v>0.2869737052157425</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2537407336625911</v>
+        <v>0.2543409833670172</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1949368245510932</v>
+        <v>0.1939705969655231</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.399242701509827</v>
+        <v>0.4080521676661646</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3719265016552225</v>
+        <v>0.3747047474283575</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3201607203836835</v>
+        <v>0.3214119467151072</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.257044687388041</v>
+        <v>0.2551094799336479</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.395650487652982</v>
+        <v>0.399100329331208</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3479522551604114</v>
+        <v>0.3502942600362456</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3294347286606396</v>
+        <v>0.3277260628786356</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2357469469076297</v>
+        <v>0.2340470453373286</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3861681684328598</v>
+        <v>0.3876345149526357</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3488064230566693</v>
+        <v>0.349183909494533</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3104721886726039</v>
+        <v>0.3113706118647484</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2359003186597857</v>
+        <v>0.2368585343847243</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.2265856331119568</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1968713614081479</v>
+        <v>0.196871361408148</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1588727999052371</v>
+        <v>0.1567563747771925</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2532496789170628</v>
+        <v>0.2582252941226038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1650544850857975</v>
+        <v>0.1631117002525509</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1529757494051225</v>
+        <v>0.1548977508174518</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2603760191580528</v>
+        <v>0.2554357957739083</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2705131388763255</v>
+        <v>0.267913758589908</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2012836938746858</v>
+        <v>0.2011587030760923</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1831491408419592</v>
+        <v>0.1832497370299056</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2237479731493732</v>
+        <v>0.2222125797376069</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2790298458481508</v>
+        <v>0.2776437588043682</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.198191285939098</v>
+        <v>0.1980314757960046</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1771033596619076</v>
+        <v>0.1783296749160735</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2539812477108338</v>
+        <v>0.2535546493885348</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3566137171410602</v>
+        <v>0.3585020855494091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2527791565562363</v>
+        <v>0.2545010610151189</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2159737667607264</v>
+        <v>0.2158497686304538</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3579257323433653</v>
+        <v>0.3575089052914131</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.370293819241415</v>
+        <v>0.3681343986262462</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2880911175688733</v>
+        <v>0.290522438796227</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2338736373408878</v>
+        <v>0.2347706452638378</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2938043552169596</v>
+        <v>0.2949086504103523</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3465086683161593</v>
+        <v>0.3447278455728581</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2596207096094446</v>
+        <v>0.2644331394525305</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2157684415180327</v>
+        <v>0.2177472593928373</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07899523742653181</v>
+        <v>0.08341440216153947</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1134398854939884</v>
+        <v>0.1162225829943073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1401303900372652</v>
+        <v>0.1357544183408971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1002354271841172</v>
+        <v>0.103295161709231</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1616732381920424</v>
+        <v>0.1617735369360999</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1588487229573026</v>
+        <v>0.160259149502743</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1744102841016659</v>
+        <v>0.1783531975435708</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1353261935855501</v>
+        <v>0.1351281127338724</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1355302520577966</v>
+        <v>0.1353965598605368</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1479406979502297</v>
+        <v>0.1513857934842674</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1746201734908346</v>
+        <v>0.1729981142752538</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1266065686660323</v>
+        <v>0.1264996219833442</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1705643152247723</v>
+        <v>0.1733528801648802</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2097645371918248</v>
+        <v>0.2186268412059475</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2437917812272622</v>
+        <v>0.2443383309070112</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1583152119753103</v>
+        <v>0.1613772983901351</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2598674366547194</v>
+        <v>0.2612997091497004</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2461126770842276</v>
+        <v>0.2500756289252743</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2825771480992721</v>
+        <v>0.2727722442927655</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1877851833759463</v>
+        <v>0.1864687259565465</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2041702172753657</v>
+        <v>0.2011498998141107</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2147500638720813</v>
+        <v>0.2187076726123226</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2443962449943221</v>
+        <v>0.2466079521039069</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1643547571438725</v>
+        <v>0.1660021100002478</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.021551806176505</v>
+        <v>0.02215240537771232</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04563565601253883</v>
+        <v>0.04530945494246939</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06142317272581967</v>
+        <v>0.06593318928483163</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05922058198067462</v>
+        <v>0.05894385475917171</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02734963967003091</v>
+        <v>0.02736402625760468</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04192617969686366</v>
+        <v>0.04221500735695249</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07657530857611401</v>
+        <v>0.07646275214913953</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06315240404193506</v>
+        <v>0.06315428361789518</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03330569325489095</v>
+        <v>0.03213037984419147</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05036845127851608</v>
+        <v>0.05050188455877377</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08310679661309968</v>
+        <v>0.08346292841028105</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06534870333697491</v>
+        <v>0.06562721698297144</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1072006289179502</v>
+        <v>0.110856736264414</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1300387397637747</v>
+        <v>0.1329857795446641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1509294109408563</v>
+        <v>0.1494073379849934</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1107455285679848</v>
+        <v>0.111370170838578</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09470627924875097</v>
+        <v>0.09868666224229884</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1029387780616596</v>
+        <v>0.1038511696621816</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1825173281957706</v>
+        <v>0.1812064638177817</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1011491007229483</v>
+        <v>0.1004567240357659</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08392993170772939</v>
+        <v>0.08651238382218684</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09823753481990075</v>
+        <v>0.09996893648630843</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1522135340885794</v>
+        <v>0.1569781044936238</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.096690689963154</v>
+        <v>0.09772638565373822</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3016519105184662</v>
+        <v>0.3016202138909649</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2847743930207224</v>
+        <v>0.2833342031761531</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2581588586487161</v>
+        <v>0.2587000698777859</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1770956407395711</v>
+        <v>0.1760733305823292</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3033560602226798</v>
+        <v>0.3033789484378354</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2737977433923122</v>
+        <v>0.2743542909240912</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2463343077326615</v>
+        <v>0.2452263651303141</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1718381972868926</v>
+        <v>0.1730357289129592</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.306474253072193</v>
+        <v>0.3075339553795495</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2836277408435715</v>
+        <v>0.2823394193310304</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.256438865050747</v>
+        <v>0.2579118168643699</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1786225381199262</v>
+        <v>0.1776015480080458</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3398696292108713</v>
+        <v>0.3390441684535774</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3177897978734626</v>
+        <v>0.3169821146877057</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2949465603126752</v>
+        <v>0.2941207202796064</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2080966291172566</v>
+        <v>0.2078803591585509</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3395936139880668</v>
+        <v>0.3396819731149724</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3066466611192507</v>
+        <v>0.3062154240053243</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.280020733564917</v>
+        <v>0.2787736208645111</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1942222947800154</v>
+        <v>0.1956955172622182</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3338877487156818</v>
+        <v>0.3331496391303114</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3068461993291364</v>
+        <v>0.3067390431260946</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.281295052198706</v>
+        <v>0.2813359264725799</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1983335651649146</v>
+        <v>0.1961638509567183</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>112217</v>
+        <v>112645</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>108570</v>
+        <v>110002</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>84111</v>
+        <v>87208</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61116</v>
+        <v>60141</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>106948</v>
+        <v>108960</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>92351</v>
+        <v>93441</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>74403</v>
+        <v>73306</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37909</v>
+        <v>38531</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>231458</v>
+        <v>230445</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>211684</v>
+        <v>212189</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>166135</v>
+        <v>168787</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>110582</v>
+        <v>111977</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>146872</v>
+        <v>147725</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>145567</v>
+        <v>146000</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>120814</v>
+        <v>121337</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>119324</v>
+        <v>119273</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>141454</v>
+        <v>143046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>127138</v>
+        <v>128802</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>106155</v>
+        <v>104701</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79425</v>
+        <v>78503</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>281481</v>
+        <v>279811</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>262532</v>
+        <v>261892</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>215982</v>
+        <v>214913</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>179317</v>
+        <v>179499</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>206507</v>
+        <v>206114</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>179823</v>
+        <v>180345</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>149483</v>
+        <v>146826</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>76211</v>
+        <v>77792</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>193441</v>
+        <v>193129</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>166734</v>
+        <v>166440</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>130264</v>
+        <v>131982</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>80455</v>
+        <v>79734</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>409738</v>
+        <v>409635</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>363853</v>
+        <v>359791</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>290285</v>
+        <v>289447</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>165663</v>
+        <v>167568</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>254491</v>
+        <v>253821</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>226190</v>
+        <v>228328</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>189862</v>
+        <v>189342</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>123310</v>
+        <v>124762</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>239984</v>
+        <v>238996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>215079</v>
+        <v>212590</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>171053</v>
+        <v>172036</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>115718</v>
+        <v>117141</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>476267</v>
+        <v>479092</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>426888</v>
+        <v>426251</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>347431</v>
+        <v>346459</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>226128</v>
+        <v>225597</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>170059</v>
+        <v>171881</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>176475</v>
+        <v>176345</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>165673</v>
+        <v>163569</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>107631</v>
+        <v>108216</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>203348</v>
+        <v>200099</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>211653</v>
+        <v>207995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>151471</v>
+        <v>149073</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>114913</v>
+        <v>115079</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>386448</v>
+        <v>386490</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>400105</v>
+        <v>402383</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>327486</v>
+        <v>328799</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>235604</v>
+        <v>234724</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>216942</v>
+        <v>216185</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>221940</v>
+        <v>223693</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>211178</v>
+        <v>210500</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>150995</v>
+        <v>150324</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>250414</v>
+        <v>248006</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>261449</v>
+        <v>263062</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>193787</v>
+        <v>195376</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>151241</v>
+        <v>151190</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>455415</v>
+        <v>451878</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>467787</v>
+        <v>470165</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>391225</v>
+        <v>389795</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>285862</v>
+        <v>288025</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>123623</v>
+        <v>124503</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>156025</v>
+        <v>157567</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>122094</v>
+        <v>120299</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>127915</v>
+        <v>127208</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>134651</v>
+        <v>134399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>148622</v>
+        <v>149373</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>135956</v>
+        <v>136988</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>133848</v>
+        <v>133945</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>270399</v>
+        <v>270802</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>321130</v>
+        <v>316896</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>268269</v>
+        <v>268904</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>272922</v>
+        <v>271570</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>161593</v>
+        <v>165158</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>201896</v>
+        <v>203404</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>164041</v>
+        <v>164682</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>174353</v>
+        <v>173041</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>173764</v>
+        <v>175279</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>195350</v>
+        <v>196665</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>179504</v>
+        <v>178573</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>170152</v>
+        <v>168925</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>325900</v>
+        <v>327138</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>385175</v>
+        <v>385592</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>328249</v>
+        <v>329198</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>330274</v>
+        <v>331615</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>43269</v>
+        <v>42692</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>91502</v>
+        <v>93299</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>61236</v>
+        <v>60515</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>90769</v>
+        <v>91909</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>83081</v>
+        <v>81505</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>105694</v>
+        <v>104678</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>79683</v>
+        <v>79633</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>109007</v>
+        <v>109067</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>132331</v>
+        <v>131423</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>209837</v>
+        <v>208795</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>151988</v>
+        <v>151865</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>210494</v>
+        <v>211951</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>69172</v>
+        <v>69055</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>128848</v>
+        <v>129530</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>93782</v>
+        <v>94420</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>128149</v>
+        <v>128076</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>114208</v>
+        <v>114075</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>144679</v>
+        <v>143836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>114047</v>
+        <v>115010</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>139197</v>
+        <v>139731</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>173765</v>
+        <v>174418</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>260583</v>
+        <v>259244</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>199097</v>
+        <v>202787</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>256449</v>
+        <v>258800</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>16807</v>
+        <v>17748</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>29777</v>
+        <v>30507</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>32248</v>
+        <v>31240</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>39868</v>
+        <v>41085</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>39923</v>
+        <v>39948</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>47590</v>
+        <v>48013</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>48303</v>
+        <v>49395</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>58045</v>
+        <v>57960</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>62304</v>
+        <v>62242</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>83155</v>
+        <v>85092</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>88545</v>
+        <v>87723</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>104662</v>
+        <v>104573</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>36290</v>
+        <v>36883</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>55061</v>
+        <v>57387</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>56103</v>
+        <v>56228</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62969</v>
+        <v>64187</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>64171</v>
+        <v>64525</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>73734</v>
+        <v>74921</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>78259</v>
+        <v>75544</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>80546</v>
+        <v>79981</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>93858</v>
+        <v>92469</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>120708</v>
+        <v>122932</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>123927</v>
+        <v>125048</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>135867</v>
+        <v>137229</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2732</v>
+        <v>2808</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8439</v>
+        <v>8379</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9033</v>
+        <v>9696</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17909</v>
+        <v>17825</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5694</v>
+        <v>5697</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>12724</v>
+        <v>12812</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17450</v>
+        <v>17424</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>28152</v>
+        <v>28153</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>11156</v>
+        <v>10763</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>24601</v>
+        <v>24666</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>31160</v>
+        <v>31293</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>48894</v>
+        <v>49102</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>13589</v>
+        <v>14053</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>24048</v>
+        <v>24593</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>22195</v>
+        <v>21971</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>33490</v>
+        <v>33679</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19719</v>
+        <v>20547</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>31241</v>
+        <v>31518</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>41592</v>
+        <v>41293</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>45091</v>
+        <v>44782</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>28114</v>
+        <v>28979</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>47981</v>
+        <v>48827</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>57070</v>
+        <v>58857</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>72344</v>
+        <v>73118</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>740164</v>
+        <v>740086</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>829226</v>
+        <v>825033</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>687821</v>
+        <v>689263</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>601502</v>
+        <v>598029</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>831480</v>
+        <v>831543</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>860952</v>
+        <v>862702</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>706318</v>
+        <v>703141</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>622876</v>
+        <v>627216</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1592023</v>
+        <v>1597528</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1717750</v>
+        <v>1709948</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1418530</v>
+        <v>1426677</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1254155</v>
+        <v>1246986</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>833938</v>
+        <v>831913</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>925363</v>
+        <v>923011</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>785836</v>
+        <v>783636</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>706796</v>
+        <v>706061</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>930805</v>
+        <v>931047</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>964245</v>
+        <v>962889</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>802908</v>
+        <v>799332</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>704013</v>
+        <v>709353</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1734426</v>
+        <v>1730592</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1858370</v>
+        <v>1857721</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1556025</v>
+        <v>1556251</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1392551</v>
+        <v>1377317</v>
       </c>
     </row>
     <row r="36">
